--- a/src/test/resources/Data/BiothermTestData.xlsx
+++ b/src/test/resources/Data/BiothermTestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26531"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6EF5D8F-B381-4964-BBC4-28AFA352EB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96B4E3D4-33AE-4BFF-A4E5-963915C305D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="app_segment" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -85,7 +88,7 @@
     <t>IBTQKRBIO</t>
   </si>
   <si>
-    <t>J774/n9^T]'xg:$Y</t>
+    <t>F#n51o_%\JQOj5f6</t>
   </si>
   <si>
     <t>IBTQQQQ</t>
@@ -1042,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D61347E-61AD-4932-9AA9-319667F233ED}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1083,7 +1086,7 @@
       <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2383,7 +2386,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2853,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4980BD8C-96FC-435D-8FA9-7C6D34F9092E}">
   <dimension ref="A1:Q10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
